--- a/biology/Zoologie/Glyptograpsidae/Glyptograpsidae.xlsx
+++ b/biology/Zoologie/Glyptograpsidae/Glyptograpsidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Glyptograpsidae sont une famille de crabes du groupe des Grapsoidea. Ces espèces se rencontrent en Amérique tropicale.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (16 décembre 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (16 décembre 2014) :
 genre Glyptograpsus Smith, 1870 - genre type de la famille
 genre Platychirograpsus de Man, 1896</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bien que les auteurs[3] ne précisent pas l'origine du nom Glyptograpsidae, on peut penser qu'il fait référence à la profonde rainure[3] présente sur le céphalothorax par le préfixe en grec ancien γλυπτός, gluptós, « gravé». Cette famille serait donc proche de celle des Grapsidae en s'en différenciant par cette particularité. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien que les auteurs ne précisent pas l'origine du nom Glyptograpsidae, on peut penser qu'il fait référence à la profonde rainure présente sur le céphalothorax par le préfixe en grec ancien γλυπτός, gluptós, « gravé». Cette famille serait donc proche de celle des Grapsidae en s'en différenciant par cette particularité. 
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Schubart, Cuesta &amp; Felder, 2002 : Glyptograpsidae, a new brachyuran family from Central America: larval and adult morphology, and a molecular phylogeny of the Grapsoidea. Journal of Crustacean Biology, vol. 22, n. 1, pp. 28–44 (texte intégral).</t>
         </is>
